--- a/ИЗМЕНЕНИЯ В БАЗЕ/Закрытие договоров о социальном обслуживании/Журнал старых значений/2020 Зуевский район (Зуевка надомное).xlsx
+++ b/ИЗМЕНЕНИЯ В БАЗЕ/Закрытие договоров о социальном обслуживании/Журнал старых значений/2020 Зуевский район (Зуевка надомное).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="158">
   <si>
     <t>OUID</t>
   </si>
@@ -479,6 +479,18 @@
   <si>
     <t>2020-12-25 08:27:20.063</t>
   </si>
+  <si>
+    <t>8328031</t>
+  </si>
+  <si>
+    <t>2021-02-11 02:04:46.860</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10314303</t>
+  </si>
 </sst>
 </file>
 
@@ -494,12 +506,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -514,9 +532,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -811,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1383"/>
+  <dimension ref="A1:F1384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A1357" workbookViewId="0">
+      <selection activeCell="J1368" sqref="J1368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28485,6 +28504,26 @@
       </c>
       <c r="F1383" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6">
+      <c r="A1384" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1384" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1384" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1384" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1384" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1384" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
